--- a/nvda_price.xlsx
+++ b/nvda_price.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.5899963378906</v>
+        <v>181.7100067138672</v>
       </c>
     </row>
   </sheetData>
